--- a/test_workbook/work3_test/work3-2-22/エビデンス/BOPエラー/OrderRatioError.xlsx
+++ b/test_workbook/work3_test/work3-2-22/エビデンス/BOPエラー/OrderRatioError.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h29458\Desktop\共通品目詳細マスタ作成ツール\seizouhinmokushousai\test_workbook\work3_test\work3-2-20\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h29458\Desktop\共通品目詳細マスタ作成ツール\seizouhinmokushousai\test_workbook\work3_test\work3-2-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8298A154-74FB-4044-9536-F30A4AE4BDBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{79F0221F-1D7F-4578-B4B5-0271307C65DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{45FBA558-FA52-47BC-8CCB-82770A1E0F43}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DDDB37FC-3445-4F35-AF3D-F1B40A70F56A}"/>
   </bookViews>
   <sheets>
     <sheet name="OrderRatioError" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="10">
   <si>
     <t>ファイル名</t>
   </si>
@@ -48,6 +48,24 @@
   </si>
   <si>
     <t>エラー内容</t>
+  </si>
+  <si>
+    <t>参照ファイル_BOPTest.xlsm</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>品目CD: P2001 にはオーダ比率が1の行が複数存在します</t>
+  </si>
+  <si>
+    <t>品目CD: P2002 にはオーダ比率が1の行が複数存在します</t>
+  </si>
+  <si>
+    <t>品目CD: P3001 にはオーダ比率が1の行が複数存在します</t>
+  </si>
+  <si>
+    <t>品目CD: P3002 にはオーダ比率が1の行が複数存在します</t>
   </si>
 </sst>
 </file>
@@ -430,16 +448,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E6AC2A8-C4AC-4F90-B666-FE3106DDCCFA}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{028850FD-B600-4744-B958-300FDCF49E27}">
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.25" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
@@ -456,6 +474,146 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
